--- a/Examples/Key Stats.xlsx
+++ b/Examples/Key Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594C71C-7B7F-464B-A0A7-FAA3EC48C24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D4119-20F0-4A57-93BD-4231D2BA50B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Stats" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" cm="1">
-        <f t="array" ref="C3">_xll.xlquoteStats(Symbol,B3)</f>
-        <v>1.1514733995595201</v>
+        <f t="array" ref="C3">_xll.xlquoteStats(Symbol,B3,"IEX")</f>
+        <v>1.2805938881850401</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -626,8 +626,8 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" cm="1">
-        <f t="array" ref="C4">_xll.xlquoteStats(Symbol,B4)</f>
-        <v>2024064528100</v>
+        <f t="array" ref="C4">_xll.xlquoteStats(Symbol,B4,"IEX")</f>
+        <v>2421950484840</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -638,8 +638,8 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" cm="1">
-        <f t="array" ref="C5">_xll.xlquoteStats(Symbol,B5)</f>
-        <v>133.94999999999999</v>
+        <f t="array" ref="C5">_xll.xlquoteStats(Symbol,B5,"IEX")</f>
+        <v>182.44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -650,8 +650,8 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" cm="1">
-        <f t="array" ref="C6">_xll.xlquoteStats(Symbol,B6)</f>
-        <v>55.74</v>
+        <f t="array" ref="C6">_xll.xlquoteStats(Symbol,B6,"IEX")</f>
+        <v>122.43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -662,8 +662,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" cm="1">
-        <f t="array" ref="C7">_xll.xlquoteStats(Symbol,B7)</f>
-        <v>0.81826234906360695</v>
+        <f t="array" ref="C7">_xll.xlquoteStats(Symbol,B7,"IEX")</f>
+        <v>0.20772771405811499</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -674,8 +674,8 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" cm="1">
-        <f t="array" ref="C8">_xll.xlquoteStats(Symbol,B8)</f>
-        <v>106886855</v>
+        <f t="array" ref="C8">_xll.xlquoteStats(Symbol,B8,"IEX")</f>
+        <v>99184352</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -686,8 +686,8 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" cm="1">
-        <f t="array" ref="C9">_xll.xlquoteStats(Symbol,B9)</f>
-        <v>106168619</v>
+        <f t="array" ref="C9">_xll.xlquoteStats(Symbol,B9,"IEX")</f>
+        <v>114866102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -698,8 +698,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" cm="1">
-        <f t="array" ref="C10">_xll.xlquoteStats(Symbol,B10)</f>
-        <v>116.56</v>
+        <f t="array" ref="C10">_xll.xlquoteStats(Symbol,B10,"IEX")</f>
+        <v>154.33000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -710,8 +710,8 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" cm="1">
-        <f t="array" ref="C11">_xll.xlquoteStats(Symbol,B11)</f>
-        <v>105.59</v>
+        <f t="array" ref="C11">_xll.xlquoteStats(Symbol,B11,"IEX")</f>
+        <v>164.79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -722,8 +722,8 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" cm="1">
-        <f t="array" ref="C12">_xll.xlquoteStats(Symbol,B12)</f>
-        <v>3.28</v>
+        <f t="array" ref="C12">_xll.xlquoteStats(Symbol,B12,"IEX")</f>
+        <v>6.15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -734,8 +734,8 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">_xll.xlquoteStats(Symbol,B13)</f>
-        <v>0.80523025086049205</v>
+        <f t="array" ref="C13">_xll.xlquoteStats(Symbol,B13,"IEX")</f>
+        <v>0.88815284137764505</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -746,8 +746,8 @@
         <v>23</v>
       </c>
       <c r="C14" s="4" cm="1">
-        <f t="array" ref="C14">_xll.xlquoteStats(Symbol,B14)</f>
-        <v>6.76379883125151E-3</v>
+        <f t="array" ref="C14">_xll.xlquoteStats(Symbol,B14,"IEX")</f>
+        <v>5.93526357509787E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -758,8 +758,8 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" cm="1">
-        <f t="array" ref="C15">_xll.xlquoteStats(Symbol,B15)</f>
-        <v>35.255691907474201</v>
+        <f t="array" ref="C15">_xll.xlquoteStats(Symbol,B15,"IEX")</f>
+        <v>23.7597536159317</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -770,8 +770,8 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" cm="1">
-        <f t="array" ref="C16">_xll.xlquoteStats(Symbol,B16)</f>
-        <v>17001802000</v>
+        <f t="array" ref="C16">_xll.xlquoteStats(Symbol,B16,"Yahoo")</f>
+        <v>16185199616</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -782,8 +782,8 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" cm="1">
-        <f t="array" ref="C17">_xll.xlquoteStats(Symbol,B17)</f>
-        <v>44.546713597061697</v>
+        <f t="array" ref="C17">_xll.xlquoteStats(Symbol,B17,"IEX")</f>
+        <v>56.760450843401401</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -794,8 +794,8 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" cm="1">
-        <f t="array" ref="C18">_xll.xlquoteStats(Symbol,B18)</f>
-        <v>3.3448270828163098</v>
+        <f t="array" ref="C18">_xll.xlquoteStats(Symbol,B18,"IEX")</f>
+        <v>3.1145496789804401</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -806,8 +806,8 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" cm="1">
-        <f t="array" ref="C19">_xll.xlquoteStats(Symbol,B19)</f>
-        <v>1.7300349710485601</v>
+        <f t="array" ref="C19">_xll.xlquoteStats(Symbol,B19,"IEX")</f>
+        <v>0.90613276945907595</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -818,8 +818,8 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" cm="1">
-        <f t="array" ref="C20">_xll.xlquoteStats(Symbol,B20)</f>
-        <v>0.79724156255095102</v>
+        <f t="array" ref="C20">_xll.xlquoteStats(Symbol,B20,"IEX")</f>
+        <v>0.20772771405811499</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -830,8 +830,8 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" cm="1">
-        <f t="array" ref="C21">_xll.xlquoteStats(Symbol,B21)</f>
-        <v>0.63566393117159103</v>
+        <f t="array" ref="C21">_xll.xlquoteStats(Symbol,B21,"IEX")</f>
+        <v>-0.15497682172122901</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -842,8 +842,8 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" cm="1">
-        <f t="array" ref="C22">_xll.xlquoteStats(Symbol,B22)</f>
-        <v>0.50305598236481697</v>
+        <f t="array" ref="C22">_xll.xlquoteStats(Symbol,B22,"IEX")</f>
+        <v>-6.3587092220151006E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -854,8 +854,8 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" cm="1">
-        <f t="array" ref="C23">_xll.xlquoteStats(Symbol,B23)</f>
-        <v>-7.5826477396757297E-2</v>
+        <f t="array" ref="C23">_xll.xlquoteStats(Symbol,B23,"IEX")</f>
+        <v>-9.0931734222070598E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -866,8 +866,8 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" cm="1">
-        <f t="array" ref="C24">_xll.xlquoteStats(Symbol,B24)</f>
-        <v>9.5493340081437297E-2</v>
+        <f t="array" ref="C24">_xll.xlquoteStats(Symbol,B24,"IEX")</f>
+        <v>-4.9414078505285702E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -878,8 +878,8 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" cm="1">
-        <f t="array" ref="C25">_xll.xlquoteStats(Symbol,B25)</f>
-        <v>9.5493340081437297E-2</v>
+        <f t="array" ref="C25">_xll.xlquoteStats(Symbol,B25,"IEX")</f>
+        <v>-4.9414078505285702E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -890,8 +890,8 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" cm="1">
-        <f t="array" ref="C26">_xll.xlquoteStats(Symbol,B26)</f>
-        <v>4.56741326306545E-2</v>
+        <f t="array" ref="C26">_xll.xlquoteStats(Symbol,B26,"IEX")</f>
+        <v>4.5629236251834002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -902,12 +902,15 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" cm="1">
-        <f t="array" ref="C27">_xll.xlquoteStats(Symbol,B27)</f>
-        <v>137000</v>
+        <f t="array" ref="C27">_xll.xlquoteStats(Symbol,B27,"IEX")</f>
+        <v>147000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C16" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Examples/Key Stats.xlsx
+++ b/Examples/Key Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D4119-20F0-4A57-93BD-4231D2BA50B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465908BA-44BD-45B9-8BD6-A9B41F93D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10381" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Stats" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" cm="1">
-        <f t="array" ref="C3">_xll.xlquoteStats(Symbol,B3,"IEX")</f>
+        <f t="array" ref="C3">_xll.xlquoteStats(Symbol,B3)</f>
         <v>1.2805938881850401</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" cm="1">
-        <f t="array" ref="C4">_xll.xlquoteStats(Symbol,B4,"IEX")</f>
+        <f t="array" ref="C4">_xll.xlquoteStats(Symbol,B4)</f>
         <v>2421950484840</v>
       </c>
     </row>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" cm="1">
-        <f t="array" ref="C5">_xll.xlquoteStats(Symbol,B5,"IEX")</f>
+        <f t="array" ref="C5">_xll.xlquoteStats(Symbol,B5)</f>
         <v>182.44</v>
       </c>
     </row>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" cm="1">
-        <f t="array" ref="C6">_xll.xlquoteStats(Symbol,B6,"IEX")</f>
+        <f t="array" ref="C6">_xll.xlquoteStats(Symbol,B6)</f>
         <v>122.43</v>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" cm="1">
-        <f t="array" ref="C7">_xll.xlquoteStats(Symbol,B7,"IEX")</f>
+        <f t="array" ref="C7">_xll.xlquoteStats(Symbol,B7)</f>
         <v>0.20772771405811499</v>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" cm="1">
-        <f t="array" ref="C8">_xll.xlquoteStats(Symbol,B8,"IEX")</f>
+        <f t="array" ref="C8">_xll.xlquoteStats(Symbol,B8)</f>
         <v>99184352</v>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" cm="1">
-        <f t="array" ref="C9">_xll.xlquoteStats(Symbol,B9,"IEX")</f>
+        <f t="array" ref="C9">_xll.xlquoteStats(Symbol,B9)</f>
         <v>114866102</v>
       </c>
     </row>
@@ -698,8 +698,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" cm="1">
-        <f t="array" ref="C10">_xll.xlquoteStats(Symbol,B10,"IEX")</f>
-        <v>154.33000000000001</v>
+        <f t="array" ref="C10">_xll.xlquoteStats(Symbol,B10)</f>
+        <v>154.66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -710,8 +710,8 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" cm="1">
-        <f t="array" ref="C11">_xll.xlquoteStats(Symbol,B11,"IEX")</f>
-        <v>164.79</v>
+        <f t="array" ref="C11">_xll.xlquoteStats(Symbol,B11)</f>
+        <v>164.68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" cm="1">
-        <f t="array" ref="C12">_xll.xlquoteStats(Symbol,B12,"IEX")</f>
+        <f t="array" ref="C12">_xll.xlquoteStats(Symbol,B12)</f>
         <v>6.15</v>
       </c>
     </row>
@@ -734,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">_xll.xlquoteStats(Symbol,B13,"IEX")</f>
+        <f t="array" ref="C13">_xll.xlquoteStats(Symbol,B13)</f>
         <v>0.88815284137764505</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="4" cm="1">
-        <f t="array" ref="C14">_xll.xlquoteStats(Symbol,B14,"IEX")</f>
+        <f t="array" ref="C14">_xll.xlquoteStats(Symbol,B14)</f>
         <v>5.93526357509787E-3</v>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" cm="1">
-        <f t="array" ref="C15">_xll.xlquoteStats(Symbol,B15,"IEX")</f>
+        <f t="array" ref="C15">_xll.xlquoteStats(Symbol,B15)</f>
         <v>23.7597536159317</v>
       </c>
     </row>
@@ -770,8 +770,8 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" cm="1">
-        <f t="array" ref="C16">_xll.xlquoteStats(Symbol,B16,"Yahoo")</f>
-        <v>16185199616</v>
+        <f t="array" ref="C16">_xll.xlquoteStats(Symbol,B16)</f>
+        <v>16185181000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -782,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" cm="1">
-        <f t="array" ref="C17">_xll.xlquoteStats(Symbol,B17,"IEX")</f>
+        <f t="array" ref="C17">_xll.xlquoteStats(Symbol,B17)</f>
         <v>56.760450843401401</v>
       </c>
     </row>
@@ -794,8 +794,8 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" cm="1">
-        <f t="array" ref="C18">_xll.xlquoteStats(Symbol,B18,"IEX")</f>
-        <v>3.1145496789804401</v>
+        <f t="array" ref="C18">_xll.xlquoteStats(Symbol,B18)</f>
+        <v>3.1161568232643702</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -806,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" cm="1">
-        <f t="array" ref="C19">_xll.xlquoteStats(Symbol,B19,"IEX")</f>
+        <f t="array" ref="C19">_xll.xlquoteStats(Symbol,B19)</f>
         <v>0.90613276945907595</v>
       </c>
     </row>
@@ -818,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" cm="1">
-        <f t="array" ref="C20">_xll.xlquoteStats(Symbol,B20,"IEX")</f>
+        <f t="array" ref="C20">_xll.xlquoteStats(Symbol,B20)</f>
         <v>0.20772771405811499</v>
       </c>
     </row>
@@ -830,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" cm="1">
-        <f t="array" ref="C21">_xll.xlquoteStats(Symbol,B21,"IEX")</f>
+        <f t="array" ref="C21">_xll.xlquoteStats(Symbol,B21)</f>
         <v>-0.15497682172122901</v>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" cm="1">
-        <f t="array" ref="C22">_xll.xlquoteStats(Symbol,B22,"IEX")</f>
+        <f t="array" ref="C22">_xll.xlquoteStats(Symbol,B22)</f>
         <v>-6.3587092220151006E-2</v>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" cm="1">
-        <f t="array" ref="C23">_xll.xlquoteStats(Symbol,B23,"IEX")</f>
+        <f t="array" ref="C23">_xll.xlquoteStats(Symbol,B23)</f>
         <v>-9.0931734222070598E-2</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" cm="1">
-        <f t="array" ref="C24">_xll.xlquoteStats(Symbol,B24,"IEX")</f>
+        <f t="array" ref="C24">_xll.xlquoteStats(Symbol,B24)</f>
         <v>-4.9414078505285702E-2</v>
       </c>
     </row>
@@ -878,7 +878,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" cm="1">
-        <f t="array" ref="C25">_xll.xlquoteStats(Symbol,B25,"IEX")</f>
+        <f t="array" ref="C25">_xll.xlquoteStats(Symbol,B25)</f>
         <v>-4.9414078505285702E-2</v>
       </c>
     </row>
@@ -890,8 +890,8 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" cm="1">
-        <f t="array" ref="C26">_xll.xlquoteStats(Symbol,B26,"IEX")</f>
-        <v>4.5629236251834002E-2</v>
+        <f t="array" ref="C26">_xll.xlquoteStats(Symbol,B26)</f>
+        <v>8.7579039174358497E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -902,15 +902,12 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" cm="1">
-        <f t="array" ref="C27">_xll.xlquoteStats(Symbol,B27,"IEX")</f>
+        <f t="array" ref="C27">_xll.xlquoteStats(Symbol,B27)</f>
         <v>147000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C16" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>